--- a/lab1_correct.xlsx
+++ b/lab1_correct.xlsx
@@ -244,18 +244,95 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1481,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,16 +1574,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1550,7 +1627,7 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>36120</v>
       </c>
       <c r="E5" s="2">
@@ -1587,7 +1664,7 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>36121</v>
       </c>
       <c r="E6" s="2">
@@ -1624,7 +1701,7 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>36122</v>
       </c>
       <c r="E7" s="2">
@@ -1661,7 +1738,7 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>36123</v>
       </c>
       <c r="E8" s="2">
@@ -1698,7 +1775,7 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>36124</v>
       </c>
       <c r="E9" s="2">
@@ -1735,7 +1812,7 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>36125</v>
       </c>
       <c r="E10" s="2">
@@ -1772,7 +1849,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>36126</v>
       </c>
       <c r="E11" s="2">
@@ -1818,7 +1895,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="14"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1863,19 +1940,6 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>$G$9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
-      <formula>6660</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>5500</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/lab1_correct.xlsx
+++ b/lab1_correct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -51,62 +51,99 @@
     <t>Сумма к выдаче, $</t>
   </si>
   <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Петров Г.Т.</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Соколова О.С.</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
     <t>Иванов И.М.</t>
   </si>
   <si>
     <t>Зам. директора</t>
   </si>
   <si>
-    <t>Коробова П.Н</t>
-  </si>
-  <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
-  </si>
-  <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>Ромашова П.Т.</t>
-  </si>
-  <si>
-    <t>Петров Г.Т.</t>
-  </si>
-  <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
-    <t>Соколова О.С.</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Средняя заработная плата:</t>
-  </si>
-  <si>
-    <t>Максимальная заработная плата:</t>
-  </si>
-  <si>
-    <t>Курс доллара:</t>
-  </si>
-  <si>
-    <t>Минимальная заработная плата:</t>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс доллара: </t>
+  </si>
+  <si>
+    <t>Средняя зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Максимальная зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Минимальная зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Итого начислено</t>
+  </si>
+  <si>
+    <t>17.04.2010</t>
+  </si>
+  <si>
+    <t>23.03.2002</t>
+  </si>
+  <si>
+    <t>04.05.2007</t>
+  </si>
+  <si>
+    <t>07.04.2017</t>
+  </si>
+  <si>
+    <t>28.06.2001</t>
+  </si>
+  <si>
+    <t>20.03.2013</t>
+  </si>
+  <si>
+    <t>27.11.2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-2809]* #,##0.00_-;\-[$$-2809]* #,##0.00_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -152,19 +183,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -199,6 +217,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -212,148 +243,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -408,7 +345,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>ЗП</a:t>
+              <a:t>Соотношение между итоговой суммой к выдаче и подоходным налогом</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -446,85 +383,173 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E6C8-41B9-82F5-3CA61B6700EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E6C8-41B9-82F5-3CA61B6700EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9695975503062117E-2"/>
+                  <c:y val="-1.3602362204724409E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E6C8-41B9-82F5-3CA61B6700EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5355643044619419E-2"/>
+                  <c:y val="-4.1745771361913264E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E6C8-41B9-82F5-3CA61B6700EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet!$B$5:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet!$H$12,Sheet!$I$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "₽"</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Иванов И.М.</c:v>
+                  <c:v>26863.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Коробова П.Н</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Морозов И.Р.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Петров Г.Т.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ромашова П.Т.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Смирнов С.И.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Соколова О.С.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$I$5:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.00\ "₽"</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3654</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5794.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5220</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83520</c:v>
+                  <c:v>179776.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90AD-4226-B639-914E565727B7}"/>
+              <c16:uniqueId val="{00000000-E6C8-41B9-82F5-3CA61B6700EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -535,119 +560,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="981700288"/>
-        <c:axId val="981700704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="981700288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="981700704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="981700704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0.00\ &quot;₽&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="981700288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -734,7 +650,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -791,7 +707,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -842,6 +758,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -852,12 +775,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -895,7 +825,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -938,22 +868,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1058,8 +989,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1191,19 +1122,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1240,20 +1172,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>926123</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>976312</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>430823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1558,389 +1490,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F5:F11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="4" max="6" width="18" customWidth="1"/>
     <col min="7" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
-        <v>36120</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="4">
         <f>0.2*E5</f>
-        <v>200</v>
-      </c>
-      <c r="G5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="6">
         <f>F5+E5</f>
-        <v>1200</v>
-      </c>
-      <c r="H5" s="2">
+        <v>24000</v>
+      </c>
+      <c r="H5" s="7">
         <f>G5*0.13</f>
-        <v>156</v>
+        <v>3120</v>
       </c>
       <c r="I5" s="3">
         <f>G5-H5</f>
-        <v>1044</v>
-      </c>
-      <c r="J5" s="4">
+        <v>20880</v>
+      </c>
+      <c r="J5" s="9">
         <f>I5/$C$14</f>
-        <v>21.75</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12">
-        <v>36121</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F11" si="0">0.2*E6</f>
-        <v>400</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G11" si="1">F6+E6</f>
-        <v>2400</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H11" si="2">G6*0.13</f>
-        <v>312</v>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F6" s="4">
+        <f>0.2*E6</f>
+        <v>6400</v>
+      </c>
+      <c r="G6" s="6">
+        <f>F6+   E6</f>
+        <v>38400</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H11" si="0">G6*0.13</f>
+        <v>4992</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" ref="I6:I11" si="3">G6-H6</f>
-        <v>2088</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" ref="J6:J11" si="4">I6/$C$14</f>
-        <v>43.5</v>
+        <f t="shared" ref="I6:I11" si="1">G6-H6</f>
+        <v>33408</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J11" si="2">I6/$C$14</f>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12">
-        <v>36122</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F11" si="3">0.2*E7</f>
+        <v>400</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G11" si="4">F7+E7</f>
+        <v>2400</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="G7" s="2">
+        <v>312</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="H7" s="2">
+        <v>2088</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>468</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="3"/>
-        <v>3132</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="4"/>
-        <v>65.25</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12">
-        <v>36123</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3500</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="G8" s="2">
+        <v>1560</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>4200</v>
-      </c>
-      <c r="H8" s="2">
+        <v>10440</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>546</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="3"/>
-        <v>3654</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="4"/>
-        <v>76.125</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12">
-        <v>36124</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5550</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>1110</v>
-      </c>
-      <c r="G9" s="2">
+        <v>7800</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>6660</v>
-      </c>
-      <c r="H9" s="2">
+        <v>52200</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>865.80000000000007</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
-        <v>5794.2</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="4"/>
-        <v>120.71249999999999</v>
+        <v>1087.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="12">
-        <v>36125</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="4"/>
+        <v>3840</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="G10" s="2">
+        <v>499.20000000000005</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="H10" s="2">
+        <v>3340.8</v>
+      </c>
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>780</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="3"/>
-        <v>5220</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="4"/>
-        <v>108.75</v>
+        <v>69.600000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12">
-        <v>36126</v>
-      </c>
-      <c r="E11" s="2">
-        <v>80000</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="4"/>
+        <v>66000</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="G11" s="2">
+        <v>8580</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>96000</v>
-      </c>
-      <c r="H11" s="2">
+        <v>57420</v>
+      </c>
+      <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>12480</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="3"/>
-        <v>83520</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="4"/>
-        <v>1740</v>
+        <v>1196.25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <f>SUM(G5:G11)</f>
-        <v>120060</v>
-      </c>
-      <c r="H12" s="2">
+        <v>206640</v>
+      </c>
+      <c r="H12" s="7">
         <f>SUM(H5:H11)</f>
-        <v>15607.8</v>
-      </c>
-      <c r="I12" s="2">
+        <v>26863.200000000001</v>
+      </c>
+      <c r="I12" s="3">
         <f>SUM(I5:I11)</f>
-        <v>104452.2</v>
-      </c>
-      <c r="J12" s="5">
+        <v>179776.8</v>
+      </c>
+      <c r="J12" s="9">
         <f>SUM(J5:J11)</f>
-        <v>2176.0875000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="12"/>
+        <v>3745.35</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
         <v>48</v>
       </c>
-      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>22</v>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="8">
         <f>AVERAGE(I5:I11)</f>
-        <v>14921.742857142857</v>
+        <v>25682.399999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>23</v>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="8">
         <f>MAX(I5:I11)</f>
-        <v>83520</v>
+        <v>57420</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="8">
         <f>MIN(I5:I11)</f>
-        <v>1044</v>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:B11">
-    <sortCondition ref="B5"/>
-  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5500</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lab1_correct.xlsx
+++ b/lab1_correct.xlsx
@@ -130,11 +130,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="_-[$$-2809]* #,##0.00_-;\-[$$-2809]* #,##0.00_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -274,13 +273,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -1491,7 +1490,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,16 +1504,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1558,7 +1557,7 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="3">
@@ -1595,7 +1594,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3">
@@ -1632,7 +1631,7 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
@@ -1669,7 +1668,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="3">
@@ -1706,7 +1705,7 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="3">
@@ -1743,7 +1742,7 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="3">
@@ -1780,7 +1779,7 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="3">

--- a/lab1_correct.xlsx
+++ b/lab1_correct.xlsx
@@ -273,13 +273,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D11" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,16 +1504,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1557,7 +1557,7 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="3">
@@ -1594,7 +1594,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3">
@@ -1631,7 +1631,7 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
@@ -1668,7 +1668,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="3">
@@ -1705,7 +1705,7 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="3">
@@ -1742,7 +1742,7 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="3">
@@ -1779,7 +1779,7 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="3">
